--- a/ML_Models.xlsx
+++ b/ML_Models.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="9">
   <si>
     <t>RF Encoded</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Clay</t>
-  </si>
-  <si>
-    <t>Sandstone</t>
   </si>
 </sst>
 </file>
@@ -375,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,10 +406,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -469,10 +466,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -503,16 +500,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -523,10 +520,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -535,10 +532,10 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -629,10 +626,10 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -669,10 +666,10 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -689,10 +686,10 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -723,22 +720,22 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -749,16 +746,16 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -769,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -803,22 +800,22 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -849,10 +846,10 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -889,10 +886,10 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -903,10 +900,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -915,10 +912,10 @@
         <v>7</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1058,886 +1055,6 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="F40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>3</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="F42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-      <c r="F43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-      <c r="F44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>3</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47">
-        <v>3</v>
-      </c>
-      <c r="F47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>3</v>
-      </c>
-      <c r="B49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="F49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>3</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
-      <c r="F51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>3</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
-      </c>
-      <c r="F55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>3</v>
-      </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
-      <c r="F57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>3</v>
-      </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>3</v>
-      </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59">
-        <v>3</v>
-      </c>
-      <c r="F59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>3</v>
-      </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60">
-        <v>3</v>
-      </c>
-      <c r="F60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>3</v>
-      </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
-      <c r="F61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="F62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>3</v>
-      </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63">
-        <v>3</v>
-      </c>
-      <c r="F63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>3</v>
-      </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="D64" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64">
-        <v>3</v>
-      </c>
-      <c r="F64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>3</v>
-      </c>
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-      <c r="D66" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66">
-        <v>3</v>
-      </c>
-      <c r="F66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>3</v>
-      </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="D67" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67">
-        <v>3</v>
-      </c>
-      <c r="F67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>3</v>
-      </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="D68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68">
-        <v>3</v>
-      </c>
-      <c r="F68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>3</v>
-      </c>
-      <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="D70" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70">
-        <v>3</v>
-      </c>
-      <c r="F70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>3</v>
-      </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-      <c r="D71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71">
-        <v>3</v>
-      </c>
-      <c r="F71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>3</v>
-      </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72">
-        <v>3</v>
-      </c>
-      <c r="F72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>3</v>
-      </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="D73" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73">
-        <v>3</v>
-      </c>
-      <c r="F73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>3</v>
-      </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-      <c r="D74" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74">
-        <v>3</v>
-      </c>
-      <c r="F74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>3</v>
-      </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>3</v>
-      </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76">
-        <v>3</v>
-      </c>
-      <c r="F76" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>3</v>
-      </c>
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="D77" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77">
-        <v>3</v>
-      </c>
-      <c r="F77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>3</v>
-      </c>
-      <c r="B78" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78">
-        <v>3</v>
-      </c>
-      <c r="F78" t="s">
         <v>6</v>
       </c>
     </row>
